--- a/preprocessing_files/preprocessing_Новый51.xlsx
+++ b/preprocessing_files/preprocessing_Новый51.xlsx
@@ -2,77 +2,70 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
       <sz val="8"/>
     </font>
     <font>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <strike val="0"/>
+      <sz val="8"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="204"/>
       <family val="2"/>
       <b val="1"/>
+      <strike val="0"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="0"/>
       <family val="2"/>
-      <sz val="8"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF003F2F"/>
+      <strike val="0"/>
+      <color rgb="00003F2F"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF003F2F"/>
+      <strike val="0"/>
+      <color rgb="00003F2F"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="0"/>
       <family val="2"/>
+      <strike val="0"/>
       <sz val="9"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="0"/>
       <family val="2"/>
       <b val="1"/>
-      <color rgb="FF003F2F"/>
+      <strike val="0"/>
+      <color rgb="00003F2F"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -85,24 +78,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6E5CB"/>
-        <bgColor rgb="FFE4F0DD"/>
+        <fgColor rgb="00D6E5CB"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4F0DD"/>
-        <bgColor rgb="FFF0F6EF"/>
+        <fgColor rgb="00E4F0DD"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F6EF"/>
-        <bgColor rgb="FFE4F0DD"/>
+        <fgColor rgb="00F0F6EF"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,37 +105,63 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA0A0A0"/>
+        <color rgb="00A0A0A0"/>
       </left>
       <right style="thin">
-        <color rgb="FFA0A0A0"/>
+        <color rgb="00A0A0A0"/>
       </right>
       <top style="thin">
-        <color rgb="FFA0A0A0"/>
+        <color rgb="00A0A0A0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
+        <color rgb="00A0A0A0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFACC8BD"/>
+        <color rgb="00A0A0A0"/>
       </left>
       <right style="thin">
-        <color rgb="FFACC8BD"/>
+        <color rgb="00A0A0A0"/>
       </right>
-      <top style="thin">
-        <color rgb="FFACC8BD"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFACC8BD"/>
+        <color rgb="00A0A0A0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA0A0A0"/>
+        <color rgb="00A0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00A0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00A0A0A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00ACC8BD"/>
+      </left>
+      <right style="thin">
+        <color rgb="00ACC8BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="00ACC8BD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00ACC8BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00A0A0A0"/>
       </left>
       <right/>
       <top/>
@@ -151,276 +170,185 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA0A0A0"/>
+        <color rgb="00A0A0A0"/>
       </left>
       <right style="thin">
-        <color rgb="FFA0A0A0"/>
+        <color rgb="00A0A0A0"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF0F6EF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFACC8BD"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD6E5CB"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE4F0DD"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA0A0A0"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003F2F"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -711,23 +639,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView rightToLeft="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5078125" defaultRowHeight="11.4" zeroHeight="0" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5" defaultRowHeight="11.429" customHeight="1"/>
   <cols>
-    <col width="23.34" customWidth="1" style="29" min="1" max="2"/>
-    <col width="18.68" customWidth="1" style="29" min="3" max="4"/>
+    <col width="23.33203125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.33203125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.66796875" customWidth="1" style="1" min="3" max="3"/>
+    <col width="18.66796875" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" s="30">
+    <row r="1" ht="16" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Уровень</t>
@@ -738,16 +668,16 @@
           <t>Курсив</t>
         </is>
       </c>
-      <c r="C1" s="31" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Анализ счета 51 за 2024 г.</t>
         </is>
       </c>
-      <c r="D1" s="32" t="n"/>
-      <c r="E1" s="32" t="n"/>
-      <c r="F1" s="32" t="n"/>
-    </row>
-    <row r="2" ht="2" customFormat="1" customHeight="1" s="29">
+      <c r="D1" s="3" t="e"/>
+      <c r="E1" s="3" t="e"/>
+      <c r="F1" s="3" t="e"/>
+    </row>
+    <row r="2" ht="2" customFormat="1" customHeight="1" s="1">
       <c r="A2" t="n">
         <v>0</v>
       </c>
@@ -755,1081 +685,1105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="11" customHeight="1" s="30">
+    <row r="3" ht="11" customHeight="1">
       <c r="A3" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>Выводимые данные: БУ (данные бухгалтерского учета)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="2" customFormat="1" customHeight="1" s="29">
+    <row r="4" ht="2" customFormat="1" customHeight="1" s="1">
       <c r="A4" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="n"/>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="32" t="n"/>
-      <c r="F4" s="32" t="n"/>
-    </row>
-    <row r="5" ht="13" customHeight="1" s="30">
+      <c r="C4" s="6" t="e"/>
+      <c r="D4" s="6" t="e"/>
+      <c r="E4" s="3" t="e"/>
+      <c r="F4" s="3" t="e"/>
+    </row>
+    <row r="5" ht="13" customHeight="1">
       <c r="A5" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="34" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>Счет</t>
         </is>
       </c>
-      <c r="D5" s="34" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>Кор. Счет</t>
         </is>
       </c>
-      <c r="E5" s="34" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Дебет</t>
         </is>
       </c>
-      <c r="F5" s="34" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>Кредит</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1" s="30">
+    <row r="6" ht="26" customHeight="1">
       <c r="A6" t="n">
         <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Статьи движения денежных средств</t>
         </is>
       </c>
-      <c r="D6" s="34" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Кор. Субконто1</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="13" customHeight="1" s="30">
+    <row r="7" ht="13" customHeight="1">
       <c r="A7" t="n">
         <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="35" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="D7" s="35" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>Начальное сальдо</t>
         </is>
       </c>
-      <c r="E7" s="36" t="n">
+      <c r="E7" s="11" t="n">
         <v>14203365.65</v>
       </c>
-      <c r="F7" s="37" t="n"/>
-    </row>
-    <row r="8" outlineLevel="1" ht="12" customHeight="1" s="30">
+      <c r="F7" s="12" t="e"/>
+    </row>
+    <row r="8" outlineLevel="1" ht="12" customHeight="1">
       <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="38" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>&lt;...&gt;</t>
         </is>
       </c>
-      <c r="D8" s="39" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>Начальное сальдо</t>
         </is>
       </c>
-      <c r="E8" s="40" t="n"/>
-      <c r="F8" s="40" t="n"/>
-    </row>
-    <row r="9" outlineLevel="2" ht="12" customHeight="1" s="30">
+      <c r="E8" s="15" t="e"/>
+      <c r="F8" s="15" t="e"/>
+    </row>
+    <row r="9" outlineLevel="2" ht="12" customHeight="1">
       <c r="A9" t="n">
         <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="41" t="n"/>
-      <c r="D9" s="42" t="inlineStr">
+      <c r="C9" s="16" t="e"/>
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E9" s="43" t="n"/>
-      <c r="F9" s="44" t="n">
+      <c r="E9" s="18" t="e"/>
+      <c r="F9" s="19" t="n">
         <v>44960</v>
       </c>
     </row>
-    <row r="10" outlineLevel="3" ht="12" customHeight="1" s="30">
+    <row r="10" outlineLevel="3" ht="12" customHeight="1">
       <c r="A10" t="n">
         <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="41" t="n"/>
-      <c r="D10" s="45" t="inlineStr">
+      <c r="C10" s="16" t="e"/>
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t>60.02</t>
         </is>
       </c>
-      <c r="E10" s="43" t="n"/>
-      <c r="F10" s="44" t="n">
+      <c r="E10" s="18" t="e"/>
+      <c r="F10" s="19" t="n">
         <v>44960</v>
       </c>
     </row>
-    <row r="11" outlineLevel="4" ht="12" customHeight="1" s="30">
+    <row r="11" outlineLevel="4" ht="12" customHeight="1">
       <c r="A11" t="n">
         <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="46" t="n"/>
-      <c r="D11" s="47" t="inlineStr">
+      <c r="C11" s="21" t="e"/>
+      <c r="D11" s="22" t="inlineStr">
         <is>
           <t>Князь Игорь ООО</t>
         </is>
       </c>
-      <c r="E11" s="48" t="n"/>
-      <c r="F11" s="49" t="n">
+      <c r="E11" s="23" t="e"/>
+      <c r="F11" s="24" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="12" outlineLevel="4" ht="25" customHeight="1" s="30">
+    <row r="12" outlineLevel="4" ht="25" customHeight="1">
       <c r="A12" t="n">
         <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="46" t="n"/>
-      <c r="D12" s="47" t="inlineStr">
+      <c r="C12" s="21" t="e"/>
+      <c r="D12" s="22" t="inlineStr">
         <is>
           <t>ООО Прочная сталь</t>
         </is>
       </c>
-      <c r="E12" s="48" t="n"/>
-      <c r="F12" s="49" t="n">
+      <c r="E12" s="23" t="e"/>
+      <c r="F12" s="24" t="n">
         <v>24960</v>
       </c>
     </row>
-    <row r="13" outlineLevel="2" ht="12" customHeight="1" s="30">
+    <row r="13" outlineLevel="2" ht="12" customHeight="1">
       <c r="A13" t="n">
         <v>2</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="41" t="n"/>
-      <c r="D13" s="42" t="inlineStr">
+      <c r="C13" s="16" t="e"/>
+      <c r="D13" s="17" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="E13" s="44" t="n">
+      <c r="E13" s="19" t="n">
         <v>25000</v>
       </c>
-      <c r="F13" s="43" t="n"/>
-    </row>
-    <row r="14" outlineLevel="3" ht="12" customHeight="1" s="30">
+      <c r="F13" s="18" t="e"/>
+    </row>
+    <row r="14" outlineLevel="3" ht="12" customHeight="1">
       <c r="A14" t="n">
         <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="41" t="n"/>
-      <c r="D14" s="45" t="inlineStr">
+      <c r="C14" s="16" t="e"/>
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>62.02</t>
         </is>
       </c>
-      <c r="E14" s="44" t="n">
+      <c r="E14" s="19" t="n">
         <v>25000</v>
       </c>
-      <c r="F14" s="43" t="n"/>
-    </row>
-    <row r="15" outlineLevel="4" ht="37" customHeight="1" s="30">
+      <c r="F14" s="18" t="e"/>
+    </row>
+    <row r="15" outlineLevel="4" ht="37" customHeight="1">
       <c r="A15" t="n">
         <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="46" t="n"/>
-      <c r="D15" s="47" t="inlineStr">
+      <c r="C15" s="21" t="e"/>
+      <c r="D15" s="22" t="inlineStr">
         <is>
           <t>ИП Мальцева Екатерина Александровна</t>
         </is>
       </c>
-      <c r="E15" s="49" t="n">
+      <c r="E15" s="24" t="n">
         <v>25000</v>
       </c>
-      <c r="F15" s="48" t="n"/>
-    </row>
-    <row r="16" outlineLevel="2" ht="12" customHeight="1" s="30">
+      <c r="F15" s="23" t="e"/>
+    </row>
+    <row r="16" outlineLevel="2" ht="12" customHeight="1">
       <c r="A16" t="n">
         <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="41" t="n"/>
-      <c r="D16" s="42" t="inlineStr">
+      <c r="C16" s="16" t="e"/>
+      <c r="D16" s="17" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="E16" s="44" t="n">
+      <c r="E16" s="19" t="n">
         <v>350000</v>
       </c>
-      <c r="F16" s="43" t="n"/>
-    </row>
-    <row r="17" outlineLevel="3" ht="12" customHeight="1" s="30">
+      <c r="F16" s="18" t="e"/>
+    </row>
+    <row r="17" outlineLevel="3" ht="12" customHeight="1">
       <c r="A17" t="n">
         <v>3</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="41" t="n"/>
-      <c r="D17" s="45" t="inlineStr">
+      <c r="C17" s="16" t="e"/>
+      <c r="D17" s="20" t="inlineStr">
         <is>
           <t>66.01</t>
         </is>
       </c>
-      <c r="E17" s="44" t="n">
+      <c r="E17" s="19" t="n">
         <v>350000</v>
       </c>
-      <c r="F17" s="43" t="n"/>
-    </row>
-    <row r="18" outlineLevel="4" ht="12" customHeight="1" s="30">
+      <c r="F17" s="18" t="e"/>
+    </row>
+    <row r="18" outlineLevel="4" ht="12" customHeight="1">
       <c r="A18" t="n">
         <v>4</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="46" t="n"/>
-      <c r="D18" s="47" t="inlineStr">
+      <c r="C18" s="21" t="e"/>
+      <c r="D18" s="22" t="inlineStr">
         <is>
           <t>ООО Неопак</t>
         </is>
       </c>
-      <c r="E18" s="49" t="n">
+      <c r="E18" s="24" t="n">
         <v>350000</v>
       </c>
-      <c r="F18" s="48" t="n"/>
-    </row>
-    <row r="19" outlineLevel="2" ht="12" customHeight="1" s="30">
+      <c r="F18" s="23" t="e"/>
+    </row>
+    <row r="19" outlineLevel="2" ht="12" customHeight="1">
       <c r="A19" t="n">
         <v>2</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="41" t="n"/>
-      <c r="D19" s="42" t="inlineStr">
+      <c r="C19" s="16" t="e"/>
+      <c r="D19" s="17" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="E19" s="43" t="n"/>
-      <c r="F19" s="44" t="n">
+      <c r="E19" s="18" t="e"/>
+      <c r="F19" s="19" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="20" outlineLevel="2" ht="12" customHeight="1" s="30">
+    <row r="20" outlineLevel="3" ht="12" customHeight="1">
       <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16" t="e"/>
+      <c r="D20" s="20" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E20" s="18" t="e"/>
+      <c r="F20" s="19" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="2" ht="12" customHeight="1">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="41" t="n"/>
-      <c r="D20" s="42" t="inlineStr">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="e"/>
+      <c r="D21" s="17" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="E20" s="44" t="n">
+      <c r="E21" s="19" t="n">
         <v>80000</v>
       </c>
-      <c r="F20" s="44" t="n">
+      <c r="F21" s="19" t="n">
         <v>261000</v>
       </c>
     </row>
-    <row r="21" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A21" t="n">
+    <row r="22" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A22" t="n">
         <v>3</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="41" t="n"/>
-      <c r="D21" s="45" t="inlineStr">
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="e"/>
+      <c r="D22" s="20" t="inlineStr">
         <is>
           <t>75.01</t>
         </is>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="E22" s="19" t="n">
         <v>80000</v>
       </c>
-      <c r="F21" s="43" t="n"/>
-    </row>
-    <row r="22" outlineLevel="4" ht="25" customHeight="1" s="30">
-      <c r="A22" t="n">
+      <c r="F22" s="18" t="e"/>
+    </row>
+    <row r="23" outlineLevel="4" ht="25" customHeight="1">
+      <c r="A23" t="n">
         <v>4</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="46" t="n"/>
-      <c r="D22" s="47" t="inlineStr">
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21" t="e"/>
+      <c r="D23" s="22" t="inlineStr">
         <is>
           <t>Учредитель Светлана</t>
         </is>
       </c>
-      <c r="E22" s="49" t="n">
+      <c r="E23" s="24" t="n">
         <v>80000</v>
       </c>
-      <c r="F22" s="48" t="n"/>
-    </row>
-    <row r="23" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A23" t="n">
+      <c r="F23" s="23" t="e"/>
+    </row>
+    <row r="24" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A24" t="n">
         <v>3</v>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="41" t="n"/>
-      <c r="D23" s="45" t="inlineStr">
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="e"/>
+      <c r="D24" s="20" t="inlineStr">
         <is>
           <t>75.02</t>
         </is>
       </c>
-      <c r="E23" s="43" t="n"/>
-      <c r="F23" s="44" t="n">
+      <c r="E24" s="18" t="e"/>
+      <c r="F24" s="19" t="n">
         <v>261000</v>
       </c>
     </row>
-    <row r="24" outlineLevel="4" ht="25" customHeight="1" s="30">
-      <c r="A24" t="n">
+    <row r="25" outlineLevel="4" ht="25" customHeight="1">
+      <c r="A25" t="n">
         <v>4</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="46" t="n"/>
-      <c r="D24" s="47" t="inlineStr">
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21" t="e"/>
+      <c r="D25" s="22" t="inlineStr">
         <is>
           <t>Учредитель Светлана</t>
         </is>
       </c>
-      <c r="E24" s="48" t="n"/>
-      <c r="F24" s="49" t="n">
+      <c r="E25" s="23" t="e"/>
+      <c r="F25" s="24" t="n">
         <v>261000</v>
       </c>
     </row>
-    <row r="25" outlineLevel="2" ht="12" customHeight="1" s="30">
-      <c r="A25" t="n">
+    <row r="26" outlineLevel="2" ht="12" customHeight="1">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="41" t="n"/>
-      <c r="D25" s="42" t="inlineStr">
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16" t="e"/>
+      <c r="D26" s="17" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="E25" s="43" t="n"/>
-      <c r="F25" s="50" t="n">
+      <c r="E26" s="18" t="e"/>
+      <c r="F26" s="25" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="26" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A26" t="n">
+    <row r="27" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A27" t="n">
         <v>3</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="41" t="n"/>
-      <c r="D26" s="45" t="inlineStr">
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="e"/>
+      <c r="D27" s="20" t="inlineStr">
         <is>
           <t>91.02</t>
         </is>
       </c>
-      <c r="E26" s="43" t="n"/>
-      <c r="F26" s="50" t="n">
+      <c r="E27" s="18" t="e"/>
+      <c r="F27" s="25" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="27" outlineLevel="1" ht="12" customHeight="1" s="30">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="51" t="n"/>
-      <c r="D27" s="39" t="inlineStr">
-        <is>
-          <t>Оборот</t>
-        </is>
-      </c>
-      <c r="E27" s="52" t="n">
-        <v>455000</v>
-      </c>
-      <c r="F27" s="52" t="n">
-        <v>307810</v>
-      </c>
-    </row>
-    <row r="28" outlineLevel="1" ht="12" customHeight="1" s="30">
+    <row r="28" outlineLevel="1" ht="12" customHeight="1">
       <c r="A28" t="n">
         <v>1</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="51" t="n"/>
-      <c r="D28" s="39" t="inlineStr">
-        <is>
-          <t>Конечное сальдо</t>
-        </is>
-      </c>
-      <c r="E28" s="40" t="n"/>
-      <c r="F28" s="40" t="n"/>
-    </row>
-    <row r="29" outlineLevel="1" ht="25" customHeight="1" s="30">
+      <c r="C28" s="26" t="e"/>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>Оборот</t>
+        </is>
+      </c>
+      <c r="E28" s="27" t="n">
+        <v>455000</v>
+      </c>
+      <c r="F28" s="27" t="n">
+        <v>307810</v>
+      </c>
+    </row>
+    <row r="29" outlineLevel="1" ht="12" customHeight="1">
       <c r="A29" t="n">
         <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
-      <c r="C29" s="38" t="inlineStr">
+      <c r="C29" s="26" t="e"/>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>Конечное сальдо</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="e"/>
+      <c r="F29" s="15" t="e"/>
+    </row>
+    <row r="30" outlineLevel="1" ht="25" customHeight="1">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Выплата кредита банку </t>
         </is>
       </c>
-      <c r="D29" s="39" t="inlineStr">
+      <c r="D30" s="14" t="inlineStr">
         <is>
           <t>Начальное сальдо</t>
         </is>
       </c>
-      <c r="E29" s="40" t="n"/>
-      <c r="F29" s="40" t="n"/>
-    </row>
-    <row r="30" outlineLevel="2" ht="12" customHeight="1" s="30">
-      <c r="A30" t="n">
+      <c r="E30" s="15" t="e"/>
+      <c r="F30" s="15" t="e"/>
+    </row>
+    <row r="31" outlineLevel="2" ht="12" customHeight="1">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="41" t="n"/>
-      <c r="D30" s="42" t="inlineStr">
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16" t="e"/>
+      <c r="D31" s="17" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="E30" s="43" t="n"/>
-      <c r="F30" s="44" t="n">
+      <c r="E31" s="18" t="e"/>
+      <c r="F31" s="19" t="n">
         <v>358635.19</v>
       </c>
     </row>
-    <row r="31" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A31" t="n">
+    <row r="32" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A32" t="n">
         <v>3</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="41" t="n"/>
-      <c r="D31" s="45" t="inlineStr">
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16" t="e"/>
+      <c r="D32" s="20" t="inlineStr">
         <is>
           <t>66.01</t>
         </is>
       </c>
-      <c r="E31" s="43" t="n"/>
-      <c r="F31" s="44" t="n">
+      <c r="E32" s="18" t="e"/>
+      <c r="F32" s="19" t="n">
         <v>358635.19</v>
       </c>
     </row>
-    <row r="32" outlineLevel="4" ht="12" customHeight="1" s="30">
-      <c r="A32" t="n">
+    <row r="33" outlineLevel="4" ht="12" customHeight="1">
+      <c r="A33" t="n">
         <v>4</v>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="46" t="n"/>
-      <c r="D32" s="47" t="inlineStr">
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21" t="e"/>
+      <c r="D33" s="22" t="inlineStr">
         <is>
           <t>ПАО СБЕРБАНК</t>
         </is>
       </c>
-      <c r="E32" s="48" t="n"/>
-      <c r="F32" s="49" t="n">
+      <c r="E33" s="23" t="e"/>
+      <c r="F33" s="24" t="n">
         <v>358635.19</v>
       </c>
     </row>
-    <row r="33" outlineLevel="1" ht="12" customHeight="1" s="30">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="51" t="n"/>
-      <c r="D33" s="39" t="inlineStr">
-        <is>
-          <t>Оборот</t>
-        </is>
-      </c>
-      <c r="E33" s="40" t="n"/>
-      <c r="F33" s="52" t="n">
-        <v>358635.19</v>
-      </c>
-    </row>
-    <row r="34" outlineLevel="1" ht="12" customHeight="1" s="30">
+    <row r="34" outlineLevel="1" ht="12" customHeight="1">
       <c r="A34" t="n">
         <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C34" s="51" t="n"/>
-      <c r="D34" s="39" t="inlineStr">
-        <is>
-          <t>Конечное сальдо</t>
-        </is>
-      </c>
-      <c r="E34" s="40" t="n"/>
-      <c r="F34" s="40" t="n"/>
-    </row>
-    <row r="35" outlineLevel="1" ht="63" customHeight="1" s="30">
+      <c r="C34" s="26" t="e"/>
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <t>Оборот</t>
+        </is>
+      </c>
+      <c r="E34" s="15" t="e"/>
+      <c r="F34" s="27" t="n">
+        <v>358635.19</v>
+      </c>
+    </row>
+    <row r="35" outlineLevel="1" ht="12" customHeight="1">
       <c r="A35" t="n">
         <v>1</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="38" t="inlineStr">
+      <c r="C35" s="26" t="e"/>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>Конечное сальдо</t>
+        </is>
+      </c>
+      <c r="E35" s="15" t="e"/>
+      <c r="F35" s="15" t="e"/>
+    </row>
+    <row r="36" outlineLevel="1" ht="63" customHeight="1">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13" t="inlineStr">
         <is>
           <t>Выручка от продажи внеоборотных активов (кроме финансовых вложений)</t>
         </is>
       </c>
-      <c r="D35" s="39" t="inlineStr">
+      <c r="D36" s="14" t="inlineStr">
         <is>
           <t>Начальное сальдо</t>
         </is>
       </c>
-      <c r="E35" s="40" t="n"/>
-      <c r="F35" s="40" t="n"/>
-    </row>
-    <row r="36" outlineLevel="2" ht="12" customHeight="1" s="30">
-      <c r="A36" t="n">
+      <c r="E36" s="15" t="e"/>
+      <c r="F36" s="15" t="e"/>
+    </row>
+    <row r="37" outlineLevel="2" ht="12" customHeight="1">
+      <c r="A37" t="n">
         <v>2</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="41" t="n"/>
-      <c r="D36" s="42" t="inlineStr">
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16" t="e"/>
+      <c r="D37" s="17" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="E36" s="44" t="n">
+      <c r="E37" s="19" t="n">
         <v>352000</v>
       </c>
-      <c r="F36" s="43" t="n"/>
-    </row>
-    <row r="37" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A37" t="n">
+      <c r="F37" s="18" t="e"/>
+    </row>
+    <row r="38" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="41" t="n"/>
-      <c r="D37" s="45" t="inlineStr">
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16" t="e"/>
+      <c r="D38" s="20" t="inlineStr">
         <is>
           <t>62.02</t>
         </is>
       </c>
-      <c r="E37" s="44" t="n">
+      <c r="E38" s="19" t="n">
         <v>352000</v>
       </c>
-      <c r="F37" s="43" t="n"/>
-    </row>
-    <row r="38" outlineLevel="4" ht="12" customHeight="1" s="30">
-      <c r="A38" t="n">
+      <c r="F38" s="18" t="e"/>
+    </row>
+    <row r="39" outlineLevel="4" ht="12" customHeight="1">
+      <c r="A39" t="n">
         <v>4</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="46" t="n"/>
-      <c r="D38" s="47" t="inlineStr">
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21" t="e"/>
+      <c r="D39" s="22" t="inlineStr">
         <is>
           <t>ООО Неопак</t>
         </is>
       </c>
-      <c r="E38" s="49" t="n">
+      <c r="E39" s="24" t="n">
         <v>352000</v>
       </c>
-      <c r="F38" s="48" t="n"/>
-    </row>
-    <row r="39" outlineLevel="1" ht="12" customHeight="1" s="30">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="51" t="n"/>
-      <c r="D39" s="39" t="inlineStr">
-        <is>
-          <t>Оборот</t>
-        </is>
-      </c>
-      <c r="E39" s="52" t="n">
-        <v>352000</v>
-      </c>
-      <c r="F39" s="40" t="n"/>
-    </row>
-    <row r="40" outlineLevel="1" ht="12" customHeight="1" s="30">
+      <c r="F39" s="23" t="e"/>
+    </row>
+    <row r="40" outlineLevel="1" ht="12" customHeight="1">
       <c r="A40" t="n">
         <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="51" t="n"/>
-      <c r="D40" s="39" t="inlineStr">
-        <is>
-          <t>Конечное сальдо</t>
-        </is>
-      </c>
-      <c r="E40" s="40" t="n"/>
-      <c r="F40" s="40" t="n"/>
-    </row>
-    <row r="41" outlineLevel="1" ht="50" customHeight="1" s="30">
+      <c r="C40" s="26" t="e"/>
+      <c r="D40" s="14" t="inlineStr">
+        <is>
+          <t>Оборот</t>
+        </is>
+      </c>
+      <c r="E40" s="27" t="n">
+        <v>352000</v>
+      </c>
+      <c r="F40" s="15" t="e"/>
+    </row>
+    <row r="41" outlineLevel="1" ht="12" customHeight="1">
       <c r="A41" t="n">
         <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="38" t="inlineStr">
+      <c r="C41" s="26" t="e"/>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Конечное сальдо</t>
+        </is>
+      </c>
+      <c r="E41" s="15" t="e"/>
+      <c r="F41" s="15" t="e"/>
+    </row>
+    <row r="42" outlineLevel="1" ht="50" customHeight="1">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13" t="inlineStr">
         <is>
           <t>Оплата товаров, работ, услуг, сырья и иных оборотных активов</t>
         </is>
       </c>
-      <c r="D41" s="39" t="inlineStr">
+      <c r="D42" s="14" t="inlineStr">
         <is>
           <t>Начальное сальдо</t>
         </is>
       </c>
-      <c r="E41" s="40" t="n"/>
-      <c r="F41" s="40" t="n"/>
-    </row>
-    <row r="42" outlineLevel="2" ht="12" customHeight="1" s="30">
-      <c r="A42" t="n">
+      <c r="E42" s="15" t="e"/>
+      <c r="F42" s="15" t="e"/>
+    </row>
+    <row r="43" outlineLevel="2" ht="12" customHeight="1">
+      <c r="A43" t="n">
         <v>2</v>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="41" t="n"/>
-      <c r="D42" s="42" t="inlineStr">
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16" t="e"/>
+      <c r="D43" s="17" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E42" s="43" t="n"/>
-      <c r="F42" s="44" t="n">
+      <c r="E43" s="18" t="e"/>
+      <c r="F43" s="19" t="n">
         <v>2947380</v>
       </c>
     </row>
-    <row r="43" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A43" t="n">
+    <row r="44" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="41" t="n"/>
-      <c r="D43" s="45" t="inlineStr">
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16" t="e"/>
+      <c r="D44" s="20" t="inlineStr">
         <is>
           <t>60.02</t>
         </is>
       </c>
-      <c r="E43" s="43" t="n"/>
-      <c r="F43" s="44" t="n">
+      <c r="E44" s="18" t="e"/>
+      <c r="F44" s="19" t="n">
         <v>2947380</v>
       </c>
     </row>
-    <row r="44" outlineLevel="4" ht="12" customHeight="1" s="30">
-      <c r="A44" t="n">
-        <v>4</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="46" t="n"/>
-      <c r="D44" s="47" t="inlineStr">
-        <is>
-          <t>ООО Князь Игорь</t>
-        </is>
-      </c>
-      <c r="E44" s="48" t="n"/>
-      <c r="F44" s="49" t="n">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="45" outlineLevel="4" ht="25" customHeight="1" s="30">
+    <row r="45" outlineLevel="4" ht="12" customHeight="1">
       <c r="A45" t="n">
         <v>4</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" s="46" t="n"/>
-      <c r="D45" s="47" t="inlineStr">
+      <c r="C45" s="21" t="e"/>
+      <c r="D45" s="22" t="inlineStr">
+        <is>
+          <t>ООО Князь Игорь</t>
+        </is>
+      </c>
+      <c r="E45" s="23" t="e"/>
+      <c r="F45" s="24" t="n">
+        <v>24750</v>
+      </c>
+    </row>
+    <row r="46" outlineLevel="4" ht="25" customHeight="1">
+      <c r="A46" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="21" t="e"/>
+      <c r="D46" s="22" t="inlineStr">
         <is>
           <t>ООО Прочная сталь</t>
         </is>
       </c>
-      <c r="E45" s="48" t="n"/>
-      <c r="F45" s="49" t="n">
+      <c r="E46" s="23" t="e"/>
+      <c r="F46" s="24" t="n">
         <v>2922630</v>
       </c>
     </row>
-    <row r="46" outlineLevel="1" ht="12" customHeight="1" s="30">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="51" t="n"/>
-      <c r="D46" s="39" t="inlineStr">
-        <is>
-          <t>Оборот</t>
-        </is>
-      </c>
-      <c r="E46" s="40" t="n"/>
-      <c r="F46" s="52" t="n">
-        <v>2947380</v>
-      </c>
-    </row>
-    <row r="47" outlineLevel="1" ht="12" customHeight="1" s="30">
+    <row r="47" outlineLevel="1" ht="12" customHeight="1">
       <c r="A47" t="n">
         <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="51" t="n"/>
-      <c r="D47" s="39" t="inlineStr">
-        <is>
-          <t>Конечное сальдо</t>
-        </is>
-      </c>
-      <c r="E47" s="40" t="n"/>
-      <c r="F47" s="40" t="n"/>
-    </row>
-    <row r="48" outlineLevel="1" ht="25" customHeight="1" s="30">
+      <c r="C47" s="26" t="e"/>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <t>Оборот</t>
+        </is>
+      </c>
+      <c r="E47" s="15" t="e"/>
+      <c r="F47" s="27" t="n">
+        <v>2947380</v>
+      </c>
+    </row>
+    <row r="48" outlineLevel="1" ht="12" customHeight="1">
       <c r="A48" t="n">
         <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
-      <c r="C48" s="38" t="inlineStr">
+      <c r="C48" s="26" t="e"/>
+      <c r="D48" s="14" t="inlineStr">
+        <is>
+          <t>Конечное сальдо</t>
+        </is>
+      </c>
+      <c r="E48" s="15" t="e"/>
+      <c r="F48" s="15" t="e"/>
+    </row>
+    <row r="49" outlineLevel="1" ht="25" customHeight="1">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13" t="inlineStr">
         <is>
           <t>Получение кредита в банке</t>
         </is>
       </c>
-      <c r="D48" s="39" t="inlineStr">
+      <c r="D49" s="14" t="inlineStr">
         <is>
           <t>Начальное сальдо</t>
         </is>
       </c>
-      <c r="E48" s="40" t="n"/>
-      <c r="F48" s="40" t="n"/>
-    </row>
-    <row r="49" outlineLevel="2" ht="12" customHeight="1" s="30">
-      <c r="A49" t="n">
+      <c r="E49" s="15" t="e"/>
+      <c r="F49" s="15" t="e"/>
+    </row>
+    <row r="50" outlineLevel="2" ht="12" customHeight="1">
+      <c r="A50" t="n">
         <v>2</v>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="41" t="n"/>
-      <c r="D49" s="42" t="inlineStr">
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16" t="e"/>
+      <c r="D50" s="17" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="E49" s="44" t="n">
+      <c r="E50" s="19" t="n">
         <v>4500000</v>
       </c>
-      <c r="F49" s="43" t="n"/>
-    </row>
-    <row r="50" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A50" t="n">
+      <c r="F50" s="18" t="e"/>
+    </row>
+    <row r="51" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="41" t="n"/>
-      <c r="D50" s="45" t="inlineStr">
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16" t="e"/>
+      <c r="D51" s="20" t="inlineStr">
         <is>
           <t>66.01</t>
         </is>
       </c>
-      <c r="E50" s="44" t="n">
+      <c r="E51" s="19" t="n">
         <v>4500000</v>
       </c>
-      <c r="F50" s="43" t="n"/>
-    </row>
-    <row r="51" outlineLevel="4" ht="12" customHeight="1" s="30">
-      <c r="A51" t="n">
+      <c r="F51" s="18" t="e"/>
+    </row>
+    <row r="52" outlineLevel="4" ht="12" customHeight="1">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="46" t="n"/>
-      <c r="D51" s="47" t="inlineStr">
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="21" t="e"/>
+      <c r="D52" s="22" t="inlineStr">
         <is>
           <t>ПАО СБЕРБАНК</t>
         </is>
       </c>
-      <c r="E51" s="49" t="n">
+      <c r="E52" s="24" t="n">
         <v>4500000</v>
       </c>
-      <c r="F51" s="48" t="n"/>
-    </row>
-    <row r="52" outlineLevel="1" ht="12" customHeight="1" s="30">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="51" t="n"/>
-      <c r="D52" s="39" t="inlineStr">
-        <is>
-          <t>Оборот</t>
-        </is>
-      </c>
-      <c r="E52" s="52" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="F52" s="40" t="n"/>
-    </row>
-    <row r="53" outlineLevel="1" ht="12" customHeight="1" s="30">
+      <c r="F52" s="23" t="e"/>
+    </row>
+    <row r="53" outlineLevel="1" ht="12" customHeight="1">
       <c r="A53" t="n">
         <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" s="51" t="n"/>
-      <c r="D53" s="39" t="inlineStr">
-        <is>
-          <t>Конечное сальдо</t>
-        </is>
-      </c>
-      <c r="E53" s="40" t="n"/>
-      <c r="F53" s="40" t="n"/>
-    </row>
-    <row r="54" outlineLevel="1" ht="12" customHeight="1" s="30">
+      <c r="C53" s="26" t="e"/>
+      <c r="D53" s="14" t="inlineStr">
+        <is>
+          <t>Оборот</t>
+        </is>
+      </c>
+      <c r="E53" s="27" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="F53" s="15" t="e"/>
+    </row>
+    <row r="54" outlineLevel="1" ht="12" customHeight="1">
       <c r="A54" t="n">
         <v>1</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
-      <c r="C54" s="38" t="inlineStr">
+      <c r="C54" s="26" t="e"/>
+      <c r="D54" s="14" t="inlineStr">
+        <is>
+          <t>Конечное сальдо</t>
+        </is>
+      </c>
+      <c r="E54" s="15" t="e"/>
+      <c r="F54" s="15" t="e"/>
+    </row>
+    <row r="55" outlineLevel="1" ht="12" customHeight="1">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13" t="inlineStr">
         <is>
           <t>Уплата процентов</t>
         </is>
       </c>
-      <c r="D54" s="39" t="inlineStr">
+      <c r="D55" s="14" t="inlineStr">
         <is>
           <t>Начальное сальдо</t>
         </is>
       </c>
-      <c r="E54" s="40" t="n"/>
-      <c r="F54" s="40" t="n"/>
-    </row>
-    <row r="55" outlineLevel="2" ht="12" customHeight="1" s="30">
-      <c r="A55" t="n">
+      <c r="E55" s="15" t="e"/>
+      <c r="F55" s="15" t="e"/>
+    </row>
+    <row r="56" outlineLevel="2" ht="12" customHeight="1">
+      <c r="A56" t="n">
         <v>2</v>
       </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="41" t="n"/>
-      <c r="D55" s="42" t="inlineStr">
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16" t="e"/>
+      <c r="D56" s="17" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="E55" s="43" t="n"/>
-      <c r="F55" s="44" t="n">
+      <c r="E56" s="18" t="e"/>
+      <c r="F56" s="19" t="n">
         <v>36986.3</v>
       </c>
     </row>
-    <row r="56" outlineLevel="3" ht="12" customHeight="1" s="30">
-      <c r="A56" t="n">
+    <row r="57" outlineLevel="3" ht="12" customHeight="1">
+      <c r="A57" t="n">
         <v>3</v>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="41" t="n"/>
-      <c r="D56" s="45" t="inlineStr">
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="16" t="e"/>
+      <c r="D57" s="20" t="inlineStr">
         <is>
           <t>66.02</t>
         </is>
       </c>
-      <c r="E56" s="43" t="n"/>
-      <c r="F56" s="44" t="n">
+      <c r="E57" s="18" t="e"/>
+      <c r="F57" s="19" t="n">
         <v>36986.3</v>
       </c>
     </row>
-    <row r="57" outlineLevel="4" ht="12" customHeight="1" s="30">
-      <c r="A57" t="n">
+    <row r="58" outlineLevel="4" ht="12" customHeight="1">
+      <c r="A58" t="n">
         <v>4</v>
       </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="46" t="n"/>
-      <c r="D57" s="47" t="inlineStr">
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="21" t="e"/>
+      <c r="D58" s="22" t="inlineStr">
         <is>
           <t>ПАО СБЕРБАНК</t>
         </is>
       </c>
-      <c r="E57" s="48" t="n"/>
-      <c r="F57" s="49" t="n">
+      <c r="E58" s="23" t="e"/>
+      <c r="F58" s="24" t="n">
         <v>36986.3</v>
       </c>
     </row>
-    <row r="58" outlineLevel="1" ht="12" customHeight="1" s="30">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" s="51" t="n"/>
-      <c r="D58" s="39" t="inlineStr">
-        <is>
-          <t>Оборот</t>
-        </is>
-      </c>
-      <c r="E58" s="40" t="n"/>
-      <c r="F58" s="52" t="n">
-        <v>36986.3</v>
-      </c>
-    </row>
-    <row r="59" outlineLevel="1" ht="12" customHeight="1" s="30">
+    <row r="59" outlineLevel="1" ht="12" customHeight="1">
       <c r="A59" t="n">
         <v>1</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
-      <c r="C59" s="51" t="n"/>
-      <c r="D59" s="39" t="inlineStr">
+      <c r="C59" s="26" t="e"/>
+      <c r="D59" s="14" t="inlineStr">
+        <is>
+          <t>Оборот</t>
+        </is>
+      </c>
+      <c r="E59" s="15" t="e"/>
+      <c r="F59" s="27" t="n">
+        <v>36986.3</v>
+      </c>
+    </row>
+    <row r="60" outlineLevel="1" ht="12" customHeight="1">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="26" t="e"/>
+      <c r="D60" s="14" t="inlineStr">
         <is>
           <t>Конечное сальдо</t>
         </is>
       </c>
-      <c r="E59" s="40" t="n"/>
-      <c r="F59" s="40" t="n"/>
-    </row>
-    <row r="60" ht="13" customHeight="1" s="30">
-      <c r="A60" t="n">
-        <v>0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" s="53" t="n"/>
-      <c r="D60" s="54" t="inlineStr">
+      <c r="E60" s="15" t="e"/>
+      <c r="F60" s="15" t="e"/>
+    </row>
+    <row r="61" ht="13" customHeight="1">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="28" t="e"/>
+      <c r="D61" s="29" t="inlineStr">
         <is>
           <t>Оборот</t>
         </is>
       </c>
-      <c r="E60" s="55" t="n">
+      <c r="E61" s="30" t="n">
         <v>5307000</v>
       </c>
-      <c r="F60" s="55" t="n">
+      <c r="F61" s="30" t="n">
         <v>3650811.49</v>
       </c>
     </row>
-    <row r="61" ht="13" customHeight="1" s="30">
-      <c r="A61" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" s="53" t="n"/>
-      <c r="D61" s="54" t="inlineStr">
+    <row r="62" ht="13" customHeight="1">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="28" t="e"/>
+      <c r="D62" s="29" t="inlineStr">
         <is>
           <t>Конечное сальдо</t>
         </is>
       </c>
-      <c r="E61" s="55" t="n">
+      <c r="E62" s="30" t="n">
         <v>15859554.16</v>
       </c>
-      <c r="F61" s="56" t="n"/>
-    </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="30"/>
+      <c r="F62" s="31" t="e"/>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.1968503937007874" right="0.1968503937007874" top="0.3937007874015748" bottom="0.3937007874015748" header="0" footer="0"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" blackAndWhite="0"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="1">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>